--- a/Traditional CV/Unprocessed Data/T_EveryNetwork_Unprocessed_AllFeatures.xlsx
+++ b/Traditional CV/Unprocessed Data/T_EveryNetwork_Unprocessed_AllFeatures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicalvarez/Documents/projectcode/cs791/Traditional CV/Unprocessed Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{20EEA780-2D5E-B74F-BB72-7F7535C3B9B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FD4E60B-43F3-5341-BC2A-80EBBE37C239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="5400" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="940" yWindow="660" windowWidth="28040" windowHeight="17440"/>
   </bookViews>
   <sheets>
     <sheet name="EveryFileIndividual_Untuned_Mod" sheetId="1" r:id="rId1"/>
@@ -50,19 +50,19 @@
     <t>b100d100.csv</t>
   </si>
   <si>
-    <t>RandomForestClassifier()</t>
+    <t>RandomForestClassifier</t>
   </si>
   <si>
-    <t>GradientBoostingClassifier()</t>
+    <t>XGBClassifier</t>
   </si>
   <si>
-    <t>DecisionTreeClassifier()</t>
+    <t>DecisionTreeClassifier</t>
   </si>
   <si>
-    <t>MLPClassifier()</t>
+    <t>MLPClassifier</t>
   </si>
   <si>
-    <t>LinearSVC()</t>
+    <t>LinearSVC</t>
   </si>
   <si>
     <t>b5000d10.csv</t>
@@ -92,9 +92,6 @@
     <t>dt</t>
   </si>
   <si>
-    <t>gb</t>
-  </si>
-  <si>
     <t>svc</t>
   </si>
   <si>
@@ -102,6 +99,9 @@
   </si>
   <si>
     <t>rf</t>
+  </si>
+  <si>
+    <t>xgb</t>
   </si>
 </sst>
 </file>
@@ -945,7 +945,7 @@
   <dimension ref="A1:H230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -972,21 +972,21 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>0.97037037037036999</v>
+        <v>0.968518518518518</v>
       </c>
       <c r="D2">
-        <v>9.7288337307878895E-3</v>
+        <v>8.99626503814158E-3</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
       </c>
       <c r="G2">
         <f>AVERAGE(C2:C46)</f>
-        <v>0.98266666666666602</v>
+        <v>0.98216460905349767</v>
       </c>
       <c r="H2">
         <f>AVERAGE(D2:D46)</f>
-        <v>9.1998362602190419E-3</v>
+        <v>9.1856052982177902E-3</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -997,21 +997,21 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>0.99814814814814801</v>
+        <v>0.99592592592592499</v>
       </c>
       <c r="D3">
-        <v>2.8688765527462301E-3</v>
+        <v>4.5961754244410397E-3</v>
       </c>
       <c r="F3" t="s">
         <v>19</v>
       </c>
       <c r="G3">
         <f>AVERAGE(C47:C91)</f>
-        <v>0.98934156378600779</v>
+        <v>0.62717695473250978</v>
       </c>
       <c r="H3">
         <f>AVERAGE(D47:D91)</f>
-        <v>7.0936333251222427E-3</v>
+        <v>7.533522195962937E-2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1022,21 +1022,21 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>0.98555555555555496</v>
+        <v>0.98481481481481403</v>
       </c>
       <c r="D4">
-        <v>7.7158024651850501E-3</v>
+        <v>8.0635337248433896E-3</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
       </c>
       <c r="G4">
         <f>AVERAGE(C92:C136)</f>
-        <v>0.61858436213991719</v>
+        <v>0.63731687242798285</v>
       </c>
       <c r="H4">
         <f>AVERAGE(D92:D136)</f>
-        <v>7.8741737819956387E-2</v>
+        <v>5.5022487701421437E-2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1047,21 +1047,21 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>0.96185185185185096</v>
+        <v>0.96296296296296302</v>
       </c>
       <c r="D5">
-        <v>1.63802551018488E-2</v>
+        <v>1.9422386077225001E-2</v>
       </c>
       <c r="F5" t="s">
         <v>21</v>
       </c>
       <c r="G5">
-        <f>AVERAGE(C137:C181)</f>
-        <v>0.64320987654320927</v>
+        <f>AVERAGE(C141:C185)</f>
+        <v>0.98511934156378533</v>
       </c>
       <c r="H5">
-        <f>AVERAGE(D137:D181)</f>
-        <v>5.5568575968944975E-2</v>
+        <f>AVERAGE(D141:D185)</f>
+        <v>9.0188730033772067E-3</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1072,21 +1072,21 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>0.98888888888888804</v>
+        <v>0.98962962962962897</v>
       </c>
       <c r="D6">
-        <v>6.1974816780301697E-3</v>
+        <v>4.9135182079339196E-3</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6">
         <f>AVERAGE(C186:C230)</f>
-        <v>0.98535802469135791</v>
+        <v>0.99057613168724257</v>
       </c>
       <c r="H6">
         <f>AVERAGE(D186:D230)</f>
-        <v>8.7825618943617144E-3</v>
+        <v>6.7813115787602914E-3</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1114,7 +1114,7 @@
         <v>0.994074074074074</v>
       </c>
       <c r="D8">
-        <v>5.1586623248829899E-3</v>
+        <v>5.4180514216028899E-3</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -1125,10 +1125,10 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.98851851851851802</v>
+        <v>0.98925925925925895</v>
       </c>
       <c r="D9">
-        <v>5.4180514216028899E-3</v>
+        <v>3.3945005147821101E-3</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1139,10 +1139,10 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>0.96148148148148105</v>
+        <v>0.95592592592592496</v>
       </c>
       <c r="D10">
-        <v>2.7150952308312899E-2</v>
+        <v>2.6434171674156199E-2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1153,10 +1153,10 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <v>0.96925925925925904</v>
+        <v>0.97</v>
       </c>
       <c r="D11">
-        <v>9.0418930486916502E-3</v>
+        <v>8.0635337248434105E-3</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -1167,10 +1167,10 @@
         <v>7</v>
       </c>
       <c r="C12">
-        <v>0.99777777777777699</v>
+        <v>0.99555555555555497</v>
       </c>
       <c r="D12">
-        <v>2.72165526975908E-3</v>
+        <v>4.6259244432580596E-3</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -1181,10 +1181,10 @@
         <v>7</v>
       </c>
       <c r="C13">
-        <v>0.98444444444444401</v>
+        <v>0.98481481481481403</v>
       </c>
       <c r="D13">
-        <v>8.6543121818873393E-3</v>
+        <v>8.2318928781084499E-3</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1195,10 +1195,10 @@
         <v>7</v>
       </c>
       <c r="C14">
-        <v>0.95888888888888801</v>
+        <v>0.96222222222222198</v>
       </c>
       <c r="D14">
-        <v>1.7149388004133601E-2</v>
+        <v>1.6996731711975899E-2</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -1209,10 +1209,10 @@
         <v>7</v>
       </c>
       <c r="C15">
-        <v>0.98925925925925895</v>
+        <v>0.988148148148148</v>
       </c>
       <c r="D15">
-        <v>6.5629796839516003E-3</v>
+        <v>6.9881341718937796E-3</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -1223,10 +1223,10 @@
         <v>7</v>
       </c>
       <c r="C16">
-        <v>0.99777777777777699</v>
+        <v>0.99814814814814801</v>
       </c>
       <c r="D16">
-        <v>1.3857990321384699E-3</v>
+        <v>1.65634664999982E-3</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -1237,10 +1237,10 @@
         <v>7</v>
       </c>
       <c r="C17">
-        <v>0.99481481481481404</v>
+        <v>0.994074074074074</v>
       </c>
       <c r="D17">
-        <v>4.2873470010334098E-3</v>
+        <v>4.5961754244410302E-3</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1251,10 +1251,10 @@
         <v>7</v>
       </c>
       <c r="C18">
-        <v>0.99074074074074003</v>
+        <v>0.98962962962962897</v>
       </c>
       <c r="D18">
-        <v>3.8844772154450198E-3</v>
+        <v>3.4346735168502601E-3</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1265,10 +1265,10 @@
         <v>7</v>
       </c>
       <c r="C19">
-        <v>0.96</v>
+        <v>0.95629629629629598</v>
       </c>
       <c r="D19">
-        <v>2.7004038716382399E-2</v>
+        <v>2.7952536687575101E-2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1279,10 +1279,10 @@
         <v>7</v>
       </c>
       <c r="C20">
-        <v>0.97111111111111104</v>
+        <v>0.968518518518518</v>
       </c>
       <c r="D20">
-        <v>1.02506314837763E-2</v>
+        <v>7.4074074074074103E-3</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1293,10 +1293,10 @@
         <v>7</v>
       </c>
       <c r="C21">
-        <v>0.99740740740740697</v>
+        <v>0.99444444444444402</v>
       </c>
       <c r="D21">
-        <v>4.3192236258113104E-3</v>
+        <v>6.7281118979944004E-3</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -1307,10 +1307,10 @@
         <v>7</v>
       </c>
       <c r="C22">
-        <v>0.98370370370370297</v>
+        <v>0.98555555555555496</v>
       </c>
       <c r="D22">
-        <v>8.3147941928309807E-3</v>
+        <v>8.0635337248434105E-3</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1321,10 +1321,10 @@
         <v>7</v>
       </c>
       <c r="C23">
-        <v>0.956666666666666</v>
+        <v>0.96148148148148105</v>
       </c>
       <c r="D23">
-        <v>1.7474260906793201E-2</v>
+        <v>1.8007771527619499E-2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1335,10 +1335,10 @@
         <v>7</v>
       </c>
       <c r="C24">
-        <v>0.98888888888888804</v>
+        <v>0.98925925925925895</v>
       </c>
       <c r="D24">
-        <v>6.7281118979944203E-3</v>
+        <v>6.7687655120359496E-3</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -1363,10 +1363,10 @@
         <v>7</v>
       </c>
       <c r="C26">
-        <v>0.99481481481481404</v>
+        <v>0.99444444444444402</v>
       </c>
       <c r="D26">
-        <v>4.2873470010334098E-3</v>
+        <v>5.1052032415149001E-3</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -1377,10 +1377,10 @@
         <v>7</v>
       </c>
       <c r="C27">
-        <v>0.99037037037037001</v>
+        <v>0.98740740740740696</v>
       </c>
       <c r="D27">
-        <v>3.9544734266782804E-3</v>
+        <v>2.9629629629629702E-3</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1391,10 +1391,10 @@
         <v>7</v>
       </c>
       <c r="C28">
-        <v>0.95962962962962906</v>
+        <v>0.95814814814814797</v>
       </c>
       <c r="D28">
-        <v>2.8191973679977798E-2</v>
+        <v>2.5676044462869599E-2</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -1405,10 +1405,10 @@
         <v>7</v>
       </c>
       <c r="C29">
-        <v>0.97111111111111104</v>
+        <v>0.96925925925925904</v>
       </c>
       <c r="D29">
-        <v>9.1923508488821106E-3</v>
+        <v>9.4135296497324904E-3</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -1419,10 +1419,10 @@
         <v>7</v>
       </c>
       <c r="C30">
-        <v>0.99740740740740697</v>
+        <v>0.99518518518518495</v>
       </c>
       <c r="D30">
-        <v>3.4346735168502701E-3</v>
+        <v>6.04055793714819E-3</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -1433,10 +1433,10 @@
         <v>7</v>
       </c>
       <c r="C31">
-        <v>0.98407407407407399</v>
+        <v>0.98481481481481503</v>
       </c>
       <c r="D31">
-        <v>7.9089468533565001E-3</v>
+        <v>1.1909581622824799E-2</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -1447,10 +1447,10 @@
         <v>7</v>
       </c>
       <c r="C32">
-        <v>0.96</v>
+        <v>0.96444444444444399</v>
       </c>
       <c r="D32">
-        <v>1.56522567474928E-2</v>
+        <v>1.5511401178794E-2</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -1464,7 +1464,7 @@
         <v>0.98888888888888804</v>
       </c>
       <c r="D33">
-        <v>6.1974816780301697E-3</v>
+        <v>5.7377531054924697E-3</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -1475,10 +1475,10 @@
         <v>7</v>
       </c>
       <c r="C34">
-        <v>0.99851851851851803</v>
+        <v>0.99814814814814801</v>
       </c>
       <c r="D34">
-        <v>1.81443684650603E-3</v>
+        <v>1.65634664999982E-3</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -1489,10 +1489,10 @@
         <v>7</v>
       </c>
       <c r="C35">
-        <v>0.994074074074074</v>
+        <v>0.99444444444444402</v>
       </c>
       <c r="D35">
-        <v>5.1586623248829899E-3</v>
+        <v>4.6848557928420203E-3</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -1503,10 +1503,10 @@
         <v>7</v>
       </c>
       <c r="C36">
-        <v>0.988148148148148</v>
+        <v>0.99</v>
       </c>
       <c r="D36">
-        <v>3.0089031128281499E-3</v>
+        <v>4.1573970964155103E-3</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -1517,10 +1517,10 @@
         <v>7</v>
       </c>
       <c r="C37">
-        <v>0.96148148148148105</v>
+        <v>0.95814814814814797</v>
       </c>
       <c r="D37">
-        <v>2.7075062048143798E-2</v>
+        <v>2.6568750273275401E-2</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -1531,10 +1531,10 @@
         <v>7</v>
       </c>
       <c r="C38">
-        <v>0.97</v>
+        <v>0.96777777777777696</v>
       </c>
       <c r="D38">
-        <v>9.3256876385289893E-3</v>
+        <v>7.9089468533565296E-3</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -1545,10 +1545,10 @@
         <v>7</v>
       </c>
       <c r="C39">
-        <v>0.99666666666666603</v>
+        <v>0.99592592592592499</v>
       </c>
       <c r="D39">
-        <v>4.8855207252862503E-3</v>
+        <v>3.9544734266782396E-3</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -1559,10 +1559,10 @@
         <v>7</v>
       </c>
       <c r="C40">
-        <v>0.98407407407407399</v>
+        <v>0.98370370370370297</v>
       </c>
       <c r="D40">
-        <v>9.5581391856029204E-3</v>
+        <v>9.3989463262588897E-3</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -1573,10 +1573,10 @@
         <v>7</v>
       </c>
       <c r="C41">
-        <v>0.96333333333333304</v>
+        <v>0.96074074074074001</v>
       </c>
       <c r="D41">
-        <v>1.50627403019724E-2</v>
+        <v>1.6826395098667402E-2</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -1587,10 +1587,10 @@
         <v>7</v>
       </c>
       <c r="C42">
-        <v>0.99074074074074003</v>
+        <v>0.98999999999999899</v>
       </c>
       <c r="D42">
-        <v>4.8290388186686198E-3</v>
+        <v>5.8090322745770898E-3</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -1615,10 +1615,10 @@
         <v>7</v>
       </c>
       <c r="C44">
-        <v>0.99444444444444402</v>
+        <v>0.99481481481481404</v>
       </c>
       <c r="D44">
-        <v>4.8290388186686302E-3</v>
+        <v>4.2873470010334098E-3</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -1629,10 +1629,10 @@
         <v>7</v>
       </c>
       <c r="C45">
-        <v>0.99037037037037001</v>
+        <v>0.99</v>
       </c>
       <c r="D45">
-        <v>5.4180514216028803E-3</v>
+        <v>3.2288140322523501E-3</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -1643,10 +1643,10 @@
         <v>7</v>
       </c>
       <c r="C46">
-        <v>0.95777777777777695</v>
+        <v>0.95740740740740704</v>
       </c>
       <c r="D46">
-        <v>3.0840978920838601E-2</v>
+        <v>2.67847181211326E-2</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -1654,13 +1654,13 @@
         <v>4</v>
       </c>
       <c r="B47" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C47">
-        <v>0.98111111111111104</v>
+        <v>0.71925925925925904</v>
       </c>
       <c r="D47">
-        <v>1.22502484507712E-2</v>
+        <v>6.7205640236225994E-2</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -1668,13 +1668,13 @@
         <v>10</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C48">
-        <v>0.99925925925925896</v>
+        <v>0.582592592592592</v>
       </c>
       <c r="D48">
-        <v>9.0721842325304297E-4</v>
+        <v>7.6985381542169495E-2</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -1682,13 +1682,13 @@
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C49">
-        <v>0.994074074074074</v>
+        <v>0.68333333333333302</v>
       </c>
       <c r="D49">
-        <v>4.8855207252862702E-3</v>
+        <v>3.9993140701312803E-2</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -1696,13 +1696,13 @@
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C50">
-        <v>0.97592592592592597</v>
+        <v>0.724444444444444</v>
       </c>
       <c r="D50">
-        <v>1.35577816427578E-2</v>
+        <v>8.8023565868170395E-2</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -1710,13 +1710,13 @@
         <v>13</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C51">
-        <v>0.99333333333333296</v>
+        <v>0.698888888888888</v>
       </c>
       <c r="D51">
-        <v>3.4346735168502502E-3</v>
+        <v>1.4468166655277399E-2</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -1724,13 +1724,13 @@
         <v>14</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C52">
-        <v>0.99703703703703705</v>
+        <v>0.59074074074074001</v>
       </c>
       <c r="D52">
-        <v>3.4346735168502701E-3</v>
+        <v>0.10122703976826899</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -1738,13 +1738,13 @@
         <v>15</v>
       </c>
       <c r="B53" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C53">
-        <v>0.99666666666666603</v>
+        <v>0.60407407407407399</v>
       </c>
       <c r="D53">
-        <v>3.9544734266782396E-3</v>
+        <v>5.25795497650745E-2</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -1752,13 +1752,13 @@
         <v>16</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C54">
-        <v>0.99444444444444402</v>
+        <v>0.66962962962962902</v>
       </c>
       <c r="D54">
-        <v>2.61891400439463E-3</v>
+        <v>8.2031811555005205E-2</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -1766,13 +1766,13 @@
         <v>17</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C55">
-        <v>0.97185185185185097</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="D55">
-        <v>2.00616334280753E-2</v>
+        <v>0.12674245079695701</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -1780,13 +1780,13 @@
         <v>4</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C56">
-        <v>0.98111111111111104</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="D56">
-        <v>1.22502484507712E-2</v>
+        <v>0.21041275003485099</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -1794,13 +1794,13 @@
         <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C57">
-        <v>0.99925925925925896</v>
+        <v>0.55259259259259197</v>
       </c>
       <c r="D57">
-        <v>9.0721842325304297E-4</v>
+        <v>6.5100955682132797E-2</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -1808,13 +1808,13 @@
         <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C58">
-        <v>0.99370370370370298</v>
+        <v>0.65074074074073995</v>
       </c>
       <c r="D58">
-        <v>4.91351820793393E-3</v>
+        <v>7.4319962258625E-2</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -1822,13 +1822,13 @@
         <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C59">
-        <v>0.97703703703703704</v>
+        <v>0.63037037037037003</v>
       </c>
       <c r="D59">
-        <v>1.16298655319315E-2</v>
+        <v>0.119260409472254</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -1836,13 +1836,13 @@
         <v>13</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C60">
-        <v>0.99333333333333296</v>
+        <v>0.71740740740740705</v>
       </c>
       <c r="D60">
-        <v>3.4346735168502502E-3</v>
+        <v>3.68253208051273E-2</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -1850,13 +1850,13 @@
         <v>14</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C61">
-        <v>0.99703703703703705</v>
+        <v>0.58481481481481401</v>
       </c>
       <c r="D61">
-        <v>3.4346735168502701E-3</v>
+        <v>3.4987750158872698E-2</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -1864,13 +1864,13 @@
         <v>15</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C62">
-        <v>0.99666666666666603</v>
+        <v>0.66740740740740701</v>
       </c>
       <c r="D62">
-        <v>3.9544734266782396E-3</v>
+        <v>2.05747324627128E-2</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -1878,13 +1878,13 @@
         <v>16</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C63">
-        <v>0.99444444444444402</v>
+        <v>0.63444444444444403</v>
       </c>
       <c r="D63">
-        <v>2.61891400439463E-3</v>
+        <v>5.1221030488801202E-2</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -1892,13 +1892,13 @@
         <v>17</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C64">
-        <v>0.97222222222222199</v>
+        <v>0.56444444444444397</v>
       </c>
       <c r="D64">
-        <v>1.9598157859737699E-2</v>
+        <v>6.9708387294924998E-2</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -1906,13 +1906,13 @@
         <v>4</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C65">
-        <v>0.98074074074074002</v>
+        <v>0.69666666666666599</v>
       </c>
       <c r="D65">
-        <v>1.28086047894744E-2</v>
+        <v>0.12316917113788201</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -1920,13 +1920,13 @@
         <v>10</v>
       </c>
       <c r="B66" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C66">
-        <v>0.99925925925925896</v>
+        <v>0.59222222222222198</v>
       </c>
       <c r="D66">
-        <v>9.0721842325304297E-4</v>
+        <v>4.1116115811490099E-2</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -1934,13 +1934,13 @@
         <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C67">
-        <v>0.99444444444444402</v>
+        <v>0.66259259259259196</v>
       </c>
       <c r="D67">
-        <v>4.9690399499995397E-3</v>
+        <v>2.2540924525485801E-2</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -1948,13 +1948,13 @@
         <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C68">
-        <v>0.97703703703703704</v>
+        <v>0.60851851851851801</v>
       </c>
       <c r="D68">
-        <v>1.16298655319315E-2</v>
+        <v>0.116737779620276</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -1962,13 +1962,13 @@
         <v>13</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C69">
-        <v>0.99333333333333296</v>
+        <v>0.70148148148148104</v>
       </c>
       <c r="D69">
-        <v>3.4346735168502502E-3</v>
+        <v>5.3214889053812699E-2</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -1976,13 +1976,13 @@
         <v>14</v>
       </c>
       <c r="B70" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C70">
-        <v>0.99703703703703705</v>
+        <v>0.624074074074074</v>
       </c>
       <c r="D70">
-        <v>3.4346735168502701E-3</v>
+        <v>4.3398178768687401E-2</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -1990,13 +1990,13 @@
         <v>15</v>
       </c>
       <c r="B71" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C71">
-        <v>0.99666666666666603</v>
+        <v>0.6</v>
       </c>
       <c r="D71">
-        <v>3.9544734266782396E-3</v>
+        <v>8.7606490166776796E-2</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -2004,13 +2004,13 @@
         <v>16</v>
       </c>
       <c r="B72" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C72">
-        <v>0.99444444444444402</v>
+        <v>0.62888888888888805</v>
       </c>
       <c r="D72">
-        <v>2.61891400439463E-3</v>
+        <v>3.2023653809210802E-2</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -2018,13 +2018,13 @@
         <v>17</v>
       </c>
       <c r="B73" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C73">
-        <v>0.97148148148148095</v>
+        <v>0.58962962962962895</v>
       </c>
       <c r="D73">
-        <v>2.01026174001658E-2</v>
+        <v>9.5535455824609497E-2</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -2032,13 +2032,13 @@
         <v>4</v>
       </c>
       <c r="B74" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C74">
-        <v>0.98148148148148096</v>
+        <v>0.62296296296296205</v>
       </c>
       <c r="D74">
-        <v>1.1712139482105E-2</v>
+        <v>0.20249337403849099</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -2046,13 +2046,13 @@
         <v>10</v>
       </c>
       <c r="B75" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C75">
-        <v>0.99925925925925896</v>
+        <v>0.46444444444444399</v>
       </c>
       <c r="D75">
-        <v>9.0721842325304297E-4</v>
+        <v>5.3766247105840999E-2</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -2060,13 +2060,13 @@
         <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C76">
-        <v>0.99370370370370298</v>
+        <v>0.67222222222222205</v>
       </c>
       <c r="D76">
-        <v>4.91351820793393E-3</v>
+        <v>4.8869244089024398E-2</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -2074,13 +2074,13 @@
         <v>12</v>
       </c>
       <c r="B77" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C77">
-        <v>0.976296296296296</v>
+        <v>0.74</v>
       </c>
       <c r="D77">
-        <v>1.29046306593958E-2</v>
+        <v>4.26263956040712E-2</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -2088,13 +2088,13 @@
         <v>13</v>
       </c>
       <c r="B78" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C78">
-        <v>0.99296296296296205</v>
+        <v>0.64444444444444404</v>
       </c>
       <c r="D78">
-        <v>3.5908739684565399E-3</v>
+        <v>5.8243611187580799E-2</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -2102,13 +2102,13 @@
         <v>14</v>
       </c>
       <c r="B79" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C79">
-        <v>0.99703703703703705</v>
+        <v>0.57629629629629597</v>
       </c>
       <c r="D79">
-        <v>3.4346735168502701E-3</v>
+        <v>7.7117123613748395E-2</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -2116,13 +2116,13 @@
         <v>15</v>
       </c>
       <c r="B80" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C80">
-        <v>0.99666666666666603</v>
+        <v>0.64259259259259205</v>
       </c>
       <c r="D80">
-        <v>3.9544734266782396E-3</v>
+        <v>3.0809828656422799E-2</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -2130,13 +2130,13 @@
         <v>16</v>
       </c>
       <c r="B81" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C81">
-        <v>0.99444444444444402</v>
+        <v>0.57259259259259199</v>
       </c>
       <c r="D81">
-        <v>2.61891400439463E-3</v>
+        <v>8.2447139818173906E-2</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -2144,13 +2144,13 @@
         <v>17</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C82">
-        <v>0.97185185185185097</v>
+        <v>0.594444444444444</v>
       </c>
       <c r="D82">
-        <v>2.00616334280753E-2</v>
+        <v>0.102218196378051</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -2158,13 +2158,13 @@
         <v>4</v>
       </c>
       <c r="B83" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C83">
-        <v>0.98037037037037</v>
+        <v>0.63518518518518496</v>
       </c>
       <c r="D83">
-        <v>1.29152561290093E-2</v>
+        <v>0.16209364090702799</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -2172,13 +2172,13 @@
         <v>10</v>
       </c>
       <c r="B84" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C84">
-        <v>0.99925925925925896</v>
+        <v>0.54148148148148101</v>
       </c>
       <c r="D84">
-        <v>9.0721842325304297E-4</v>
+        <v>6.1101009266077803E-2</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -2186,13 +2186,13 @@
         <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C85">
-        <v>0.99370370370370298</v>
+        <v>0.67111111111111099</v>
       </c>
       <c r="D85">
-        <v>4.91351820793393E-3</v>
+        <v>5.60423120574155E-2</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -2200,13 +2200,13 @@
         <v>12</v>
       </c>
       <c r="B86" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C86">
-        <v>0.97740740740740695</v>
+        <v>0.67814814814814794</v>
       </c>
       <c r="D86">
-        <v>1.1011902775791499E-2</v>
+        <v>8.9499446320255902E-2</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -2214,13 +2214,13 @@
         <v>13</v>
       </c>
       <c r="B87" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C87">
-        <v>0.99296296296296205</v>
+        <v>0.65185185185185102</v>
       </c>
       <c r="D87">
-        <v>3.5908739684565399E-3</v>
+        <v>6.1441307713563598E-2</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -2228,13 +2228,13 @@
         <v>14</v>
       </c>
       <c r="B88" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C88">
-        <v>0.99703703703703705</v>
+        <v>0.52851851851851805</v>
       </c>
       <c r="D88">
-        <v>3.4346735168502701E-3</v>
+        <v>0.10410372584053799</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -2242,13 +2242,13 @@
         <v>15</v>
       </c>
       <c r="B89" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C89">
-        <v>0.99666666666666603</v>
+        <v>0.649629629629629</v>
       </c>
       <c r="D89">
-        <v>3.9544734266782396E-3</v>
+        <v>2.1029732691227199E-2</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -2256,13 +2256,13 @@
         <v>16</v>
       </c>
       <c r="B90" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C90">
-        <v>0.99444444444444402</v>
+        <v>0.64481481481481395</v>
       </c>
       <c r="D90">
-        <v>2.61891400439463E-3</v>
+        <v>5.0149296994335402E-2</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -2270,13 +2270,13 @@
         <v>17</v>
       </c>
       <c r="B91" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C91">
-        <v>0.97185185185185097</v>
+        <v>0.55296296296296299</v>
       </c>
       <c r="D91">
-        <v>2.00616334280753E-2</v>
+        <v>0.139022651636481</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -2284,13 +2284,13 @@
         <v>4</v>
       </c>
       <c r="B92" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C92">
-        <v>0.58296296296296302</v>
+        <v>0.64148148148148099</v>
       </c>
       <c r="D92">
-        <v>0.206669985370937</v>
+        <v>0.12599453468670399</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -2298,13 +2298,13 @@
         <v>10</v>
       </c>
       <c r="B93" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C93">
-        <v>0.54962962962962902</v>
+        <v>0.63370370370370299</v>
       </c>
       <c r="D93">
-        <v>4.8565145816758498E-2</v>
+        <v>1.99931401129863E-2</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -2312,13 +2312,13 @@
         <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C94">
-        <v>0.64555555555555499</v>
+        <v>0.64999999999999902</v>
       </c>
       <c r="D94">
-        <v>5.4390247653237599E-2</v>
+        <v>3.8113972465742003E-2</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -2326,13 +2326,13 @@
         <v>12</v>
       </c>
       <c r="B95" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C95">
-        <v>0.66296296296296298</v>
+        <v>0.64888888888888796</v>
       </c>
       <c r="D95">
-        <v>0.106167814983033</v>
+        <v>7.3801349796764601E-2</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -2340,13 +2340,13 @@
         <v>13</v>
       </c>
       <c r="B96" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C96">
-        <v>0.71629629629629599</v>
+        <v>0.62148148148148097</v>
       </c>
       <c r="D96">
-        <v>5.0963285959355398E-2</v>
+        <v>1.9619144649109601E-2</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -2354,13 +2354,13 @@
         <v>14</v>
       </c>
       <c r="B97" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C97">
-        <v>0.56444444444444397</v>
+        <v>0.59888888888888803</v>
       </c>
       <c r="D97">
-        <v>7.6974689870491997E-2</v>
+        <v>3.4218694703558698E-2</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -2368,13 +2368,13 @@
         <v>15</v>
       </c>
       <c r="B98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C98">
-        <v>0.62481481481481405</v>
+        <v>0.61851851851851802</v>
       </c>
       <c r="D98">
-        <v>7.3866375480402396E-2</v>
+        <v>5.0971360203966698E-2</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -2382,13 +2382,13 @@
         <v>16</v>
       </c>
       <c r="B99" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C99">
-        <v>0.64518518518518497</v>
+        <v>0.58888888888888802</v>
       </c>
       <c r="D99">
-        <v>3.0644651249537101E-2</v>
+        <v>3.6042194446526898E-2</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -2396,13 +2396,13 @@
         <v>17</v>
       </c>
       <c r="B100" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C100">
-        <v>0.67962962962962903</v>
+        <v>0.60296296296296203</v>
       </c>
       <c r="D100">
-        <v>5.5469068482344598E-2</v>
+        <v>6.2290526883058202E-2</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -2410,13 +2410,13 @@
         <v>4</v>
       </c>
       <c r="B101" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C101">
-        <v>0.53518518518518499</v>
+        <v>0.65481481481481396</v>
       </c>
       <c r="D101">
-        <v>0.174113470719157</v>
+        <v>5.5833870767022099E-2</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -2424,13 +2424,13 @@
         <v>10</v>
       </c>
       <c r="B102" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C102">
-        <v>0.55037037037036995</v>
+        <v>0.63703703703703696</v>
       </c>
       <c r="D102">
-        <v>9.3016806009851502E-2</v>
+        <v>0.12528705038088001</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -2438,13 +2438,13 @@
         <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C103">
-        <v>0.67777777777777704</v>
+        <v>0.67259259259259196</v>
       </c>
       <c r="D103">
-        <v>4.7082218020950202E-2</v>
+        <v>4.9377468857030503E-2</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -2452,13 +2452,13 @@
         <v>12</v>
       </c>
       <c r="B104" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C104">
-        <v>0.60592592592592498</v>
+        <v>0.71444444444444399</v>
       </c>
       <c r="D104">
-        <v>0.17946880926206199</v>
+        <v>5.0162971713591097E-2</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -2466,13 +2466,13 @@
         <v>13</v>
       </c>
       <c r="B105" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C105">
-        <v>0.68259259259259197</v>
+        <v>0.67148148148148101</v>
       </c>
       <c r="D105">
-        <v>7.9604647243900206E-2</v>
+        <v>3.8465062622125103E-2</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -2480,13 +2480,13 @@
         <v>14</v>
       </c>
       <c r="B106" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C106">
-        <v>0.59333333333333305</v>
+        <v>0.61185185185185098</v>
       </c>
       <c r="D106">
-        <v>5.39089309809253E-2</v>
+        <v>6.1581801241682499E-2</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -2494,13 +2494,13 @@
         <v>15</v>
       </c>
       <c r="B107" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C107">
-        <v>0.61518518518518495</v>
+        <v>0.60444444444444401</v>
       </c>
       <c r="D107">
-        <v>2.6743715849682499E-2</v>
+        <v>3.1396399188922501E-2</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -2508,13 +2508,13 @@
         <v>16</v>
       </c>
       <c r="B108" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C108">
-        <v>0.61888888888888804</v>
+        <v>0.66481481481481397</v>
       </c>
       <c r="D108">
-        <v>5.5176484524156098E-2</v>
+        <v>6.1026877975126202E-2</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -2522,13 +2522,13 @@
         <v>17</v>
       </c>
       <c r="B109" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C109">
-        <v>0.62481481481481405</v>
+        <v>0.63814814814814802</v>
       </c>
       <c r="D109">
-        <v>0.10912169620024501</v>
+        <v>8.7242468358720501E-2</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -2536,13 +2536,13 @@
         <v>4</v>
       </c>
       <c r="B110" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C110">
-        <v>0.58296296296296202</v>
+        <v>0.68074074074073998</v>
       </c>
       <c r="D110">
-        <v>0.149647047024415</v>
+        <v>4.6593122531285197E-2</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -2550,13 +2550,13 @@
         <v>10</v>
       </c>
       <c r="B111" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C111">
-        <v>0.59666666666666601</v>
+        <v>0.70074074074074</v>
       </c>
       <c r="D111">
-        <v>6.7325958117863696E-2</v>
+        <v>3.1980789844330199E-2</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -2564,13 +2564,13 @@
         <v>11</v>
       </c>
       <c r="B112" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C112">
-        <v>0.64481481481481395</v>
+        <v>0.63629629629629603</v>
       </c>
       <c r="D112">
-        <v>0.11464982171227101</v>
+        <v>3.7434900054794801E-2</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -2578,13 +2578,13 @@
         <v>12</v>
       </c>
       <c r="B113" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C113">
-        <v>0.64111111111111097</v>
+        <v>0.67</v>
       </c>
       <c r="D113">
-        <v>0.15026907735933301</v>
+        <v>2.8960026373814202E-2</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -2592,13 +2592,13 @@
         <v>13</v>
       </c>
       <c r="B114" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C114">
-        <v>0.67370370370370303</v>
+        <v>0.59481481481481402</v>
       </c>
       <c r="D114">
-        <v>4.97924361133446E-2</v>
+        <v>3.7723272226699897E-2</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -2606,13 +2606,13 @@
         <v>14</v>
       </c>
       <c r="B115" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C115">
-        <v>0.58444444444444399</v>
+        <v>0.62259259259259203</v>
       </c>
       <c r="D115">
-        <v>4.6282961042409698E-2</v>
+        <v>2.44107511900504E-2</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -2620,13 +2620,13 @@
         <v>15</v>
       </c>
       <c r="B116" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C116">
-        <v>0.65259259259259195</v>
+        <v>0.57851851851851799</v>
       </c>
       <c r="D116">
-        <v>3.5069986855602399E-2</v>
+        <v>4.7395831920137403E-2</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -2634,13 +2634,13 @@
         <v>16</v>
       </c>
       <c r="B117" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C117">
-        <v>0.69185185185185105</v>
+        <v>0.61333333333333295</v>
       </c>
       <c r="D117">
-        <v>5.16078916988158E-2</v>
+        <v>3.4751715868858897E-2</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -2648,13 +2648,13 @@
         <v>17</v>
       </c>
       <c r="B118" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C118">
-        <v>0.56703703703703701</v>
+        <v>0.62222222222222201</v>
       </c>
       <c r="D118">
-        <v>9.0588685903469301E-2</v>
+        <v>0.11325099889941199</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -2662,13 +2662,13 @@
         <v>4</v>
       </c>
       <c r="B119" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C119">
-        <v>0.60185185185185097</v>
+        <v>0.68148148148148102</v>
       </c>
       <c r="D119">
-        <v>0.17055143357708499</v>
+        <v>7.8854974452375298E-2</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -2676,13 +2676,13 @@
         <v>10</v>
       </c>
       <c r="B120" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C120">
-        <v>0.52407407407407403</v>
+        <v>0.72407407407407398</v>
       </c>
       <c r="D120">
-        <v>4.8247760205872701E-2</v>
+        <v>2.9997713676024499E-2</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -2690,13 +2690,13 @@
         <v>11</v>
       </c>
       <c r="B121" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C121">
-        <v>0.69407407407407395</v>
+        <v>0.625925925925926</v>
       </c>
       <c r="D121">
-        <v>3.2019369994890301E-2</v>
+        <v>0.10002057401523599</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -2704,13 +2704,13 @@
         <v>12</v>
       </c>
       <c r="B122" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C122">
-        <v>0.631851851851851</v>
+        <v>0.68851851851851797</v>
       </c>
       <c r="D122">
-        <v>6.3822026204176402E-2</v>
+        <v>7.5671660972575605E-2</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -2718,13 +2718,13 @@
         <v>13</v>
       </c>
       <c r="B123" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C123">
-        <v>0.68333333333333302</v>
+        <v>0.66444444444444395</v>
       </c>
       <c r="D123">
-        <v>5.3761144249368099E-2</v>
+        <v>5.9506428973374201E-2</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -2732,13 +2732,13 @@
         <v>14</v>
       </c>
       <c r="B124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C124">
-        <v>0.57925925925925903</v>
+        <v>0.63222222222222202</v>
       </c>
       <c r="D124">
-        <v>6.1322865451318299E-2</v>
+        <v>3.5206621150566303E-2</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -2746,13 +2746,13 @@
         <v>15</v>
       </c>
       <c r="B125" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C125">
-        <v>0.61296296296296204</v>
+        <v>0.59518518518518504</v>
       </c>
       <c r="D125">
-        <v>3.9993140701312803E-2</v>
+        <v>5.24123149122242E-2</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
@@ -2760,13 +2760,13 @@
         <v>16</v>
       </c>
       <c r="B126" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C126">
-        <v>0.59629629629629599</v>
+        <v>0.59370370370370296</v>
       </c>
       <c r="D126">
-        <v>6.8523523340738995E-2</v>
+        <v>7.6851628736847005E-2</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -2774,13 +2774,13 @@
         <v>17</v>
       </c>
       <c r="B127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C127">
-        <v>0.60407407407407399</v>
+        <v>0.68185185185185104</v>
       </c>
       <c r="D127">
-        <v>8.2397211187774003E-2</v>
+        <v>1.7739155577523001E-2</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -2788,13 +2788,13 @@
         <v>4</v>
       </c>
       <c r="B128" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C128">
-        <v>0.67481481481481398</v>
+        <v>0.61592592592592599</v>
       </c>
       <c r="D128">
-        <v>9.9108509072857703E-2</v>
+        <v>9.2878078406907497E-2</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
@@ -2802,13 +2802,13 @@
         <v>10</v>
       </c>
       <c r="B129" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C129">
-        <v>0.58407407407407397</v>
+        <v>0.57851851851851799</v>
       </c>
       <c r="D129">
-        <v>5.62133892441605E-2</v>
+        <v>7.2790734875231605E-2</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
@@ -2816,13 +2816,13 @@
         <v>11</v>
       </c>
       <c r="B130" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C130">
-        <v>0.65296296296296297</v>
+        <v>0.68333333333333302</v>
       </c>
       <c r="D130">
-        <v>8.2697989552313195E-2</v>
+        <v>5.2260296076020799E-2</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -2830,13 +2830,13 @@
         <v>12</v>
       </c>
       <c r="B131" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C131">
-        <v>0.57555555555555504</v>
+        <v>0.59814814814814798</v>
       </c>
       <c r="D131">
-        <v>0.18156989531897999</v>
+        <v>8.8672576306046899E-2</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -2844,13 +2844,13 @@
         <v>13</v>
       </c>
       <c r="B132" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C132">
-        <v>0.68555555555555503</v>
+        <v>0.63370370370370299</v>
       </c>
       <c r="D132">
-        <v>3.7394570588054898E-2</v>
+        <v>4.3609440087511102E-2</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -2858,13 +2858,13 @@
         <v>14</v>
       </c>
       <c r="B133" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C133">
-        <v>0.55444444444444396</v>
+        <v>0.63259259259259204</v>
       </c>
       <c r="D133">
-        <v>7.0024491110476497E-2</v>
+        <v>2.8293969266346999E-2</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
@@ -2872,13 +2872,13 @@
         <v>15</v>
       </c>
       <c r="B134" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C134">
-        <v>0.637777777777777</v>
+        <v>0.62185185185185099</v>
       </c>
       <c r="D134">
-        <v>2.38479407881559E-2</v>
+        <v>2.7898503089283599E-2</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
@@ -2886,13 +2886,13 @@
         <v>16</v>
       </c>
       <c r="B135" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C135">
-        <v>0.59851851851851801</v>
+        <v>0.61333333333333295</v>
       </c>
       <c r="D135">
-        <v>3.68402177801724E-2</v>
+        <v>4.82676579485775E-2</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -2900,699 +2900,699 @@
         <v>17</v>
       </c>
       <c r="B136" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C136">
-        <v>0.53407407407407403</v>
+        <v>0.62074074074074004</v>
       </c>
       <c r="D136">
-        <v>5.78608140257778E-2</v>
+        <v>7.1159320078393096E-2</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
-      </c>
-      <c r="C137">
-        <v>0.62333333333333296</v>
-      </c>
-      <c r="D137">
-        <v>6.7277041212797206E-2</v>
+        <v>1</v>
+      </c>
+      <c r="C137" t="s">
+        <v>2</v>
+      </c>
+      <c r="D137" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
-      </c>
-      <c r="C138">
-        <v>0.66037037037037005</v>
-      </c>
-      <c r="D138">
-        <v>4.8807451813608502E-2</v>
+        <v>1</v>
+      </c>
+      <c r="C138" t="s">
+        <v>2</v>
+      </c>
+      <c r="D138" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
-      </c>
-      <c r="C139">
-        <v>0.67925925925925901</v>
-      </c>
-      <c r="D139">
-        <v>4.2088808061767999E-2</v>
+        <v>1</v>
+      </c>
+      <c r="C139" t="s">
+        <v>2</v>
+      </c>
+      <c r="D139" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
-      </c>
-      <c r="C140">
-        <v>0.63370370370370299</v>
-      </c>
-      <c r="D140">
-        <v>6.1590710645843899E-2</v>
+        <v>1</v>
+      </c>
+      <c r="C140" t="s">
+        <v>2</v>
+      </c>
+      <c r="D140" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C141">
-        <v>0.63703703703703696</v>
+        <v>0.974444444444444</v>
       </c>
       <c r="D141">
-        <v>4.3587415910888203E-2</v>
+        <v>1.5687273025590601E-2</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C142">
-        <v>0.67</v>
+        <v>0.99851851851851803</v>
       </c>
       <c r="D142">
-        <v>2.8045622248359301E-2</v>
+        <v>1.3857990321384801E-3</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C143">
-        <v>0.60444444444444401</v>
+        <v>0.99037037037037001</v>
       </c>
       <c r="D143">
-        <v>3.00114290072339E-2</v>
+        <v>4.5961754244410796E-3</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C144">
-        <v>0.62259259259259203</v>
+        <v>0.97370370370370296</v>
       </c>
       <c r="D144">
-        <v>7.8719170593509399E-2</v>
+        <v>1.48794884641486E-2</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C145">
-        <v>0.60185185185185097</v>
+        <v>0.99074074074074003</v>
       </c>
       <c r="D145">
-        <v>3.7679611017362502E-2</v>
+        <v>4.0572041296679101E-3</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C146">
-        <v>0.63148148148148098</v>
+        <v>0.99814814814814801</v>
       </c>
       <c r="D146">
-        <v>7.0428825623731595E-2</v>
+        <v>2.8688765527462301E-3</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C147">
-        <v>0.68518518518518501</v>
+        <v>0.99592592592592499</v>
       </c>
       <c r="D147">
-        <v>6.0143860456552699E-2</v>
+        <v>3.1860463952009801E-3</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C148">
-        <v>0.69555555555555504</v>
+        <v>0.986296296296296</v>
       </c>
       <c r="D148">
-        <v>3.2087842395985798E-2</v>
+        <v>4.6259244432580501E-3</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C149">
-        <v>0.68629629629629596</v>
+        <v>0.96370370370370295</v>
       </c>
       <c r="D149">
-        <v>8.7155947141230899E-2</v>
+        <v>2.19301797675369E-2</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C150">
-        <v>0.65999999999999903</v>
+        <v>0.97333333333333305</v>
       </c>
       <c r="D150">
-        <v>4.9477378406064497E-2</v>
+        <v>1.4132432613584401E-2</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C151">
-        <v>0.651481481481481</v>
+        <v>0.99814814814814801</v>
       </c>
       <c r="D151">
-        <v>3.4254754458583198E-2</v>
+        <v>2.0286020648339399E-3</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C152">
-        <v>0.60148148148148095</v>
+        <v>0.98888888888888804</v>
       </c>
       <c r="D152">
-        <v>5.6125471820783999E-2</v>
+        <v>4.8290388186686302E-3</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C153">
-        <v>0.59555555555555495</v>
+        <v>0.97259259259259201</v>
       </c>
       <c r="D153">
-        <v>6.0943653843189997E-2</v>
+        <v>1.6371878596518698E-2</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C154">
-        <v>0.67148148148148101</v>
+        <v>0.99074074074074003</v>
       </c>
       <c r="D154">
-        <v>2.8318199783133699E-2</v>
+        <v>6.41500299099583E-3</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C155">
-        <v>0.67370370370370303</v>
+        <v>0.99814814814814801</v>
       </c>
       <c r="D155">
-        <v>5.1949643233604202E-2</v>
+        <v>2.8688765527462301E-3</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C156">
-        <v>0.63333333333333297</v>
+        <v>0.99703703703703705</v>
       </c>
       <c r="D156">
-        <v>9.2050263599875601E-2</v>
+        <v>1.88852574577508E-3</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C157">
-        <v>0.62925925925925896</v>
+        <v>0.98407407407407399</v>
       </c>
       <c r="D157">
-        <v>7.9482206340970002E-2</v>
+        <v>1.0644524343111E-2</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C158">
-        <v>0.67370370370370303</v>
+        <v>0.95962962962962906</v>
       </c>
       <c r="D158">
-        <v>6.2792798377845099E-2</v>
+        <v>2.7024350143636501E-2</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C159">
-        <v>0.66592592592592503</v>
+        <v>0.97518518518518504</v>
       </c>
       <c r="D159">
-        <v>4.7134631910912599E-2</v>
+        <v>1.43252441524546E-2</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C160">
-        <v>0.61074074074074003</v>
+        <v>0.99777777777777699</v>
       </c>
       <c r="D160">
-        <v>8.9606669847769299E-2</v>
+        <v>2.72165526975908E-3</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C161">
-        <v>0.58814814814814798</v>
+        <v>0.99111111111111005</v>
       </c>
       <c r="D161">
-        <v>4.5385107206045598E-2</v>
+        <v>5.6655772373253198E-3</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C162">
-        <v>0.63814814814814802</v>
+        <v>0.97259259259259201</v>
       </c>
       <c r="D162">
-        <v>7.1180521680208705E-2</v>
+        <v>1.4458682441439301E-2</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C163">
-        <v>0.643703703703703</v>
+        <v>0.99111111111111105</v>
       </c>
       <c r="D163">
-        <v>7.1035839792173996E-2</v>
+        <v>4.8855207252862598E-3</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C164">
-        <v>0.67185185185185103</v>
+        <v>0.99851851851851803</v>
       </c>
       <c r="D164">
-        <v>6.0727189093509798E-2</v>
+        <v>2.15961181290566E-3</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C165">
-        <v>0.63703703703703696</v>
+        <v>0.99703703703703594</v>
       </c>
       <c r="D165">
-        <v>9.2139632808886193E-2</v>
+        <v>2.2222222222222001E-3</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C166">
-        <v>0.681111111111111</v>
+        <v>0.986296296296296</v>
       </c>
       <c r="D166">
-        <v>6.7681575117791395E-2</v>
+        <v>7.8217452155343904E-3</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C167">
-        <v>0.619999999999999</v>
+        <v>0.96037037037036999</v>
       </c>
       <c r="D167">
-        <v>7.0022532136867904E-2</v>
+        <v>2.8463149713838301E-2</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C168">
-        <v>0.64074074074073994</v>
+        <v>0.97222222222222199</v>
       </c>
       <c r="D168">
-        <v>2.7014196338978402E-2</v>
+        <v>1.4998856838012199E-2</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C169">
-        <v>0.62074074074074004</v>
+        <v>0.99814814814814801</v>
       </c>
       <c r="D169">
-        <v>2.7750603992487601E-2</v>
+        <v>2.0286020648339399E-3</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C170">
-        <v>0.60666666666666602</v>
+        <v>0.98925925925925895</v>
       </c>
       <c r="D170">
-        <v>2.8607365210855499E-2</v>
+        <v>5.1586623248830003E-3</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C171">
-        <v>0.592592592592592</v>
+        <v>0.97111111111111104</v>
       </c>
       <c r="D171">
-        <v>0.107726219053696</v>
+        <v>1.3588100983588199E-2</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C172">
-        <v>0.64814814814814803</v>
+        <v>0.99037037037037001</v>
       </c>
       <c r="D172">
-        <v>2.2740861382235099E-2</v>
+        <v>5.9027323890775297E-3</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C173">
-        <v>0.67814814814814794</v>
+        <v>0.99740740740740697</v>
       </c>
       <c r="D173">
-        <v>7.4566879234268593E-2</v>
+        <v>3.4346735168502701E-3</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C174">
-        <v>0.70814814814814797</v>
+        <v>0.99592592592592499</v>
       </c>
       <c r="D174">
-        <v>3.9659040661277199E-2</v>
+        <v>3.5908739684565399E-3</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C175">
-        <v>0.66481481481481397</v>
+        <v>0.986296296296296</v>
       </c>
       <c r="D175">
-        <v>4.5976674470171001E-2</v>
+        <v>7.5541029831004101E-3</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C176">
-        <v>0.69740740740740703</v>
+        <v>0.95888888888888801</v>
       </c>
       <c r="D176">
-        <v>1.59130007844006E-2</v>
+        <v>2.8936333310554899E-2</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C177">
-        <v>0.65296296296296297</v>
+        <v>0.97481481481481402</v>
       </c>
       <c r="D177">
-        <v>3.9468346088169501E-2</v>
+        <v>1.48425665996399E-2</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C178">
-        <v>0.62962962962962898</v>
+        <v>0.99851851851851803</v>
       </c>
       <c r="D178">
-        <v>2.79868673886111E-2</v>
+        <v>1.3857990321384801E-3</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C179">
-        <v>0.586666666666666</v>
+        <v>0.98925925925925895</v>
       </c>
       <c r="D179">
-        <v>6.3692936213184503E-2</v>
+        <v>4.7430549906910197E-3</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C180">
-        <v>0.61888888888888804</v>
+        <v>0.97222222222222199</v>
       </c>
       <c r="D180">
-        <v>8.0766220920016701E-2</v>
+        <v>1.49530586949528E-2</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C181">
-        <v>0.62111111111111095</v>
+        <v>0.99037037037037001</v>
       </c>
       <c r="D181">
-        <v>8.0784901277085305E-2</v>
+        <v>6.0178062256562798E-3</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B182" t="s">
-        <v>1</v>
-      </c>
-      <c r="C182" t="s">
-        <v>2</v>
-      </c>
-      <c r="D182" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C182">
+        <v>0.99851851851851803</v>
+      </c>
+      <c r="D182">
+        <v>1.3857990321384801E-3</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B183" t="s">
-        <v>1</v>
-      </c>
-      <c r="C183" t="s">
-        <v>2</v>
-      </c>
-      <c r="D183" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C183">
+        <v>0.99555555555555497</v>
+      </c>
+      <c r="D183">
+        <v>3.0089031128281299E-3</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B184" t="s">
-        <v>1</v>
-      </c>
-      <c r="C184" t="s">
-        <v>2</v>
-      </c>
-      <c r="D184" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C184">
+        <v>0.986296296296296</v>
+      </c>
+      <c r="D184">
+        <v>5.6897375910137798E-3</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B185" t="s">
-        <v>1</v>
-      </c>
-      <c r="C185" t="s">
-        <v>2</v>
-      </c>
-      <c r="D185" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C185">
+        <v>0.96074074074074001</v>
+      </c>
+      <c r="D185">
+        <v>2.6486013598194202E-2</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
@@ -3600,13 +3600,13 @@
         <v>4</v>
       </c>
       <c r="B186" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C186">
-        <v>0.97518518518518504</v>
+        <v>0.982222222222222</v>
       </c>
       <c r="D186">
-        <v>1.10243526415831E-2</v>
+        <v>1.16298655319315E-2</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
@@ -3614,7 +3614,7 @@
         <v>10</v>
       </c>
       <c r="B187" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C187">
         <v>0.99851851851851803</v>
@@ -3628,13 +3628,13 @@
         <v>11</v>
       </c>
       <c r="B188" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C188">
-        <v>0.98925925925925895</v>
+        <v>0.99444444444444402</v>
       </c>
       <c r="D188">
-        <v>4.1242698983926301E-3</v>
+        <v>3.70370370370369E-3</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
@@ -3642,13 +3642,13 @@
         <v>12</v>
       </c>
       <c r="B189" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C189">
-        <v>0.97185185185185097</v>
+        <v>0.98148148148148096</v>
       </c>
       <c r="D189">
-        <v>1.5198729280506E-2</v>
+        <v>1.10492102890195E-2</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
@@ -3656,13 +3656,13 @@
         <v>13</v>
       </c>
       <c r="B190" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C190">
-        <v>0.99074074074074003</v>
+        <v>0.99444444444444402</v>
       </c>
       <c r="D190">
-        <v>4.6848557928420602E-3</v>
+        <v>3.3126932999996998E-3</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
@@ -3670,13 +3670,13 @@
         <v>14</v>
       </c>
       <c r="B191" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C191">
-        <v>0.99814814814814801</v>
+        <v>0.99703703703703705</v>
       </c>
       <c r="D191">
-        <v>2.3424278964210002E-3</v>
+        <v>3.4346735168502701E-3</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
@@ -3684,13 +3684,13 @@
         <v>15</v>
       </c>
       <c r="B192" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C192">
-        <v>0.99703703703703594</v>
+        <v>0.99703703703703705</v>
       </c>
       <c r="D192">
-        <v>2.2222222222222001E-3</v>
+        <v>1.88852574577508E-3</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
@@ -3698,13 +3698,13 @@
         <v>16</v>
       </c>
       <c r="B193" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C193">
-        <v>0.98666666666666603</v>
+        <v>0.99370370370370298</v>
       </c>
       <c r="D193">
-        <v>5.4180514216028699E-3</v>
+        <v>4.7718884173055904E-3</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
@@ -3712,13 +3712,13 @@
         <v>17</v>
       </c>
       <c r="B194" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C194">
-        <v>0.95925925925925903</v>
+        <v>0.976296296296296</v>
       </c>
       <c r="D194">
-        <v>2.89031303927802E-2</v>
+        <v>1.9855444672118801E-2</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
@@ -3726,13 +3726,13 @@
         <v>4</v>
       </c>
       <c r="B195" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C195">
-        <v>0.97518518518518504</v>
+        <v>0.982222222222222</v>
       </c>
       <c r="D195">
-        <v>1.25925925925926E-2</v>
+        <v>1.16298655319315E-2</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
@@ -3740,13 +3740,13 @@
         <v>10</v>
       </c>
       <c r="B196" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C196">
-        <v>0.99888888888888805</v>
+        <v>0.99851851851851803</v>
       </c>
       <c r="D196">
-        <v>9.0721842325304297E-4</v>
+        <v>1.3857990321384801E-3</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
@@ -3754,13 +3754,13 @@
         <v>11</v>
       </c>
       <c r="B197" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C197">
-        <v>0.98925925925925895</v>
+        <v>0.99444444444444402</v>
       </c>
       <c r="D197">
-        <v>5.5431961285539897E-3</v>
+        <v>3.70370370370369E-3</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
@@ -3768,13 +3768,13 @@
         <v>12</v>
       </c>
       <c r="B198" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C198">
-        <v>0.97111111111111104</v>
+        <v>0.98148148148148096</v>
       </c>
       <c r="D198">
-        <v>1.8834343903838601E-2</v>
+        <v>1.10492102890195E-2</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
@@ -3782,13 +3782,13 @@
         <v>13</v>
       </c>
       <c r="B199" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C199">
-        <v>0.99148148148148096</v>
+        <v>0.99444444444444402</v>
       </c>
       <c r="D199">
-        <v>4.62592444325809E-3</v>
+        <v>3.3126932999996998E-3</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
@@ -3796,13 +3796,13 @@
         <v>14</v>
       </c>
       <c r="B200" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C200">
-        <v>0.99851851851851803</v>
+        <v>0.99703703703703705</v>
       </c>
       <c r="D200">
-        <v>1.3857990321384801E-3</v>
+        <v>3.4346735168502701E-3</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
@@ -3810,13 +3810,13 @@
         <v>15</v>
       </c>
       <c r="B201" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C201">
-        <v>0.99740740740740697</v>
+        <v>0.99703703703703705</v>
       </c>
       <c r="D201">
-        <v>2.2222222222222001E-3</v>
+        <v>1.88852574577508E-3</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
@@ -3824,10 +3824,10 @@
         <v>16</v>
       </c>
       <c r="B202" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C202">
-        <v>0.98777777777777698</v>
+        <v>0.99370370370370298</v>
       </c>
       <c r="D202">
         <v>4.7718884173055904E-3</v>
@@ -3838,13 +3838,13 @@
         <v>17</v>
       </c>
       <c r="B203" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C203">
-        <v>0.95962962962962906</v>
+        <v>0.976296296296296</v>
       </c>
       <c r="D203">
-        <v>3.04380456463768E-2</v>
+        <v>1.9855444672118801E-2</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
@@ -3852,13 +3852,13 @@
         <v>4</v>
       </c>
       <c r="B204" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C204">
-        <v>0.97259259259259201</v>
+        <v>0.982222222222222</v>
       </c>
       <c r="D204">
-        <v>1.3010494866852001E-2</v>
+        <v>1.16298655319315E-2</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
@@ -3866,7 +3866,7 @@
         <v>10</v>
       </c>
       <c r="B205" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C205">
         <v>0.99851851851851803</v>
@@ -3880,13 +3880,13 @@
         <v>11</v>
       </c>
       <c r="B206" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C206">
-        <v>0.988148148148148</v>
+        <v>0.99444444444444402</v>
       </c>
       <c r="D206">
-        <v>6.1530547132726604E-3</v>
+        <v>3.70370370370369E-3</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
@@ -3894,13 +3894,13 @@
         <v>12</v>
       </c>
       <c r="B207" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C207">
-        <v>0.97111111111111104</v>
+        <v>0.98148148148148096</v>
       </c>
       <c r="D207">
-        <v>1.63383296297131E-2</v>
+        <v>1.10492102890195E-2</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
@@ -3908,13 +3908,13 @@
         <v>13</v>
       </c>
       <c r="B208" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C208">
-        <v>0.99148148148148096</v>
+        <v>0.99444444444444402</v>
       </c>
       <c r="D208">
-        <v>5.5678875475455303E-3</v>
+        <v>3.3126932999996998E-3</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
@@ -3922,13 +3922,13 @@
         <v>14</v>
       </c>
       <c r="B209" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C209">
-        <v>0.99851851851851803</v>
+        <v>0.99703703703703705</v>
       </c>
       <c r="D209">
-        <v>1.3857990321384801E-3</v>
+        <v>3.4346735168502701E-3</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
@@ -3936,13 +3936,13 @@
         <v>15</v>
       </c>
       <c r="B210" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C210">
-        <v>0.99629629629629601</v>
+        <v>0.99703703703703705</v>
       </c>
       <c r="D210">
-        <v>3.8844772154450098E-3</v>
+        <v>1.88852574577508E-3</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
@@ -3950,13 +3950,13 @@
         <v>16</v>
       </c>
       <c r="B211" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C211">
-        <v>0.98592592592592498</v>
+        <v>0.99370370370370298</v>
       </c>
       <c r="D211">
-        <v>6.4788354387169704E-3</v>
+        <v>4.7718884173055904E-3</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
@@ -3964,13 +3964,13 @@
         <v>17</v>
       </c>
       <c r="B212" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C212">
-        <v>0.962592592592592</v>
+        <v>0.976296296296296</v>
       </c>
       <c r="D212">
-        <v>2.7725877440315402E-2</v>
+        <v>1.9855444672118801E-2</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
@@ -3978,13 +3978,13 @@
         <v>4</v>
       </c>
       <c r="B213" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C213">
-        <v>0.97666666666666602</v>
+        <v>0.982222222222222</v>
       </c>
       <c r="D213">
-        <v>1.02506314837763E-2</v>
+        <v>1.16298655319315E-2</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
@@ -3992,7 +3992,7 @@
         <v>10</v>
       </c>
       <c r="B214" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C214">
         <v>0.99851851851851803</v>
@@ -4006,13 +4006,13 @@
         <v>11</v>
       </c>
       <c r="B215" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C215">
-        <v>0.988148148148148</v>
+        <v>0.99444444444444402</v>
       </c>
       <c r="D215">
-        <v>5.4433105395181799E-3</v>
+        <v>3.70370370370369E-3</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
@@ -4020,13 +4020,13 @@
         <v>12</v>
       </c>
       <c r="B216" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C216">
-        <v>0.97</v>
+        <v>0.98148148148148096</v>
       </c>
       <c r="D216">
-        <v>1.8045818837155302E-2</v>
+        <v>1.10492102890195E-2</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
@@ -4034,13 +4034,13 @@
         <v>13</v>
       </c>
       <c r="B217" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C217">
-        <v>0.99074074074074003</v>
+        <v>0.99444444444444402</v>
       </c>
       <c r="D217">
-        <v>4.8290388186686501E-3</v>
+        <v>3.3126932999996998E-3</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
@@ -4048,13 +4048,13 @@
         <v>14</v>
       </c>
       <c r="B218" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C218">
-        <v>0.99851851851851803</v>
+        <v>0.99703703703703705</v>
       </c>
       <c r="D218">
-        <v>2.15961181290566E-3</v>
+        <v>3.4346735168502701E-3</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
@@ -4062,13 +4062,13 @@
         <v>15</v>
       </c>
       <c r="B219" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C219">
         <v>0.99703703703703705</v>
       </c>
       <c r="D219">
-        <v>2.5119740678241601E-3</v>
+        <v>1.88852574577508E-3</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
@@ -4076,13 +4076,13 @@
         <v>16</v>
       </c>
       <c r="B220" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C220">
-        <v>0.98703703703703705</v>
+        <v>0.99370370370370298</v>
       </c>
       <c r="D220">
-        <v>7.1242163191375298E-3</v>
+        <v>4.7718884173055904E-3</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
@@ -4090,13 +4090,13 @@
         <v>17</v>
       </c>
       <c r="B221" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C221">
-        <v>0.96222222222222198</v>
+        <v>0.976296296296296</v>
       </c>
       <c r="D221">
-        <v>2.7656525485325101E-2</v>
+        <v>1.9855444672118801E-2</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
@@ -4104,13 +4104,13 @@
         <v>4</v>
       </c>
       <c r="B222" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C222">
-        <v>0.97481481481481402</v>
+        <v>0.982222222222222</v>
       </c>
       <c r="D222">
-        <v>1.3887654266113001E-2</v>
+        <v>1.16298655319315E-2</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
@@ -4118,7 +4118,7 @@
         <v>10</v>
       </c>
       <c r="B223" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C223">
         <v>0.99851851851851803</v>
@@ -4132,13 +4132,13 @@
         <v>11</v>
       </c>
       <c r="B224" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C224">
-        <v>0.98851851851851802</v>
+        <v>0.99444444444444402</v>
       </c>
       <c r="D224">
-        <v>6.1307205026840004E-3</v>
+        <v>3.70370370370369E-3</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
@@ -4146,13 +4146,13 @@
         <v>12</v>
       </c>
       <c r="B225" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C225">
-        <v>0.97333333333333305</v>
+        <v>0.98148148148148096</v>
       </c>
       <c r="D225">
-        <v>1.5117282690339601E-2</v>
+        <v>1.10492102890195E-2</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
@@ -4160,13 +4160,13 @@
         <v>13</v>
       </c>
       <c r="B226" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C226">
-        <v>0.99111111111111105</v>
+        <v>0.99444444444444402</v>
       </c>
       <c r="D226">
-        <v>5.0239481356483696E-3</v>
+        <v>3.3126932999996998E-3</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
@@ -4174,13 +4174,13 @@
         <v>14</v>
       </c>
       <c r="B227" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C227">
-        <v>0.99814814814814801</v>
+        <v>0.99703703703703705</v>
       </c>
       <c r="D227">
-        <v>2.8688765527462301E-3</v>
+        <v>3.4346735168502701E-3</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
@@ -4188,10 +4188,10 @@
         <v>15</v>
       </c>
       <c r="B228" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C228">
-        <v>0.99740740740740697</v>
+        <v>0.99703703703703705</v>
       </c>
       <c r="D228">
         <v>1.88852574577508E-3</v>
@@ -4202,13 +4202,13 @@
         <v>16</v>
       </c>
       <c r="B229" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C229">
-        <v>0.98740740740740696</v>
+        <v>0.99370370370370298</v>
       </c>
       <c r="D229">
-        <v>4.1242698983925902E-3</v>
+        <v>4.7718884173055904E-3</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
@@ -4216,13 +4216,13 @@
         <v>17</v>
       </c>
       <c r="B230" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C230">
-        <v>0.96185185185185096</v>
+        <v>0.976296296296296</v>
       </c>
       <c r="D230">
-        <v>2.6825657721824901E-2</v>
+        <v>1.9855444672118801E-2</v>
       </c>
     </row>
   </sheetData>
